--- a/Documentatie/Prestaties Studenten Team.xlsx
+++ b/Documentatie/Prestaties Studenten Team.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
   <si>
     <t>Student</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>Coding C# (Repository EF ontwerp)</t>
+  </si>
+  <si>
+    <t>Fixed connection met cloud MSSQL DB (hosting SmarterASP.Net)</t>
   </si>
 </sst>
 </file>
@@ -413,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,6 +628,26 @@
         <v>13</v>
       </c>
     </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1">
+        <v>44622</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentatie/Prestaties Studenten Team.xlsx
+++ b/Documentatie/Prestaties Studenten Team.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
   <si>
     <t>Student</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>Fixed connection met cloud MSSQL DB (hosting SmarterASP.Net)</t>
+  </si>
+  <si>
+    <t>Validation of NationRegistrationNumber en Constructor Models</t>
   </si>
 </sst>
 </file>
@@ -416,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -648,6 +651,26 @@
         <v>14</v>
       </c>
     </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="1">
+        <v>44623</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentatie/Prestaties Studenten Team.xlsx
+++ b/Documentatie/Prestaties Studenten Team.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
   <si>
     <t>Student</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>Validation of NationRegistrationNumber en Constructor Models</t>
+  </si>
+  <si>
+    <t>Repositories en interfaces eerste versie</t>
   </si>
 </sst>
 </file>
@@ -419,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,6 +674,26 @@
         <v>15</v>
       </c>
     </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="1">
+        <v>44628</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E13">
+        <v>6</v>
+      </c>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentatie/Prestaties Studenten Team.xlsx
+++ b/Documentatie/Prestaties Studenten Team.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
   <si>
     <t>Student</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>Repositories en interfaces eerste versie</t>
+  </si>
+  <si>
+    <t>Meeting Docent en team</t>
   </si>
 </sst>
 </file>
@@ -422,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -694,6 +697,26 @@
         <v>16</v>
       </c>
     </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="1">
+        <v>44629</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.86111111111111116</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentatie/Prestaties Studenten Team.xlsx
+++ b/Documentatie/Prestaties Studenten Team.xlsx
@@ -1,33 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\HoGent\Project-2022\Documentatie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Atom\source\repos\Project-2022\Documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57854110-AE14-44D9-B27A-0E86A444A8BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="Robin " sheetId="1" r:id="rId1"/>
+    <sheet name="Hendrik" sheetId="2" r:id="rId2"/>
+    <sheet name="Giorgi" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
-  <si>
-    <t>Student</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
   <si>
     <t>Datum</t>
   </si>
@@ -41,12 +49,6 @@
     <t>Totaal</t>
   </si>
   <si>
-    <t>Robin Van Welden</t>
-  </si>
-  <si>
-    <t>Hendrik De Wilde</t>
-  </si>
-  <si>
     <t>Beschrijving</t>
   </si>
   <si>
@@ -56,9 +58,6 @@
     <t>Uitleg Project + Samenstellen/Kennismaking team</t>
   </si>
   <si>
-    <t>Giorgi Kavelli</t>
-  </si>
-  <si>
     <t>Brainstorm ivm database ontwerp/ ui flow</t>
   </si>
   <si>
@@ -78,12 +77,66 @@
   </si>
   <si>
     <t>Meeting Docent en team</t>
+  </si>
+  <si>
+    <t>Opfrissen XUnit testing en testing project aanmaken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aanmaken Test classen voor domain models </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opfrissen c# en nieuwe functionaliteit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opfrissen entity framework </t>
+  </si>
+  <si>
+    <t>Opfrissen Domain driven developement pattern</t>
+  </si>
+  <si>
+    <t>Onderzoek best practices voor XUnit tests</t>
+  </si>
+  <si>
+    <t>C# implementatie: validatie functie en tests voor license plate.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C# refactor Unit test names </t>
+  </si>
+  <si>
+    <t>C# Implementatie: domain exceptions</t>
+  </si>
+  <si>
+    <t>C# refactor: model names</t>
+  </si>
+  <si>
+    <t>C# implementatie: complete Unit test voor Class: Car</t>
+  </si>
+  <si>
+    <t>C# implementatie: all domain models</t>
+  </si>
+  <si>
+    <t>C# implementatie: EntityTypeConfiguraties in Repository</t>
+  </si>
+  <si>
+    <t>C# implementatie: Exception throw voor firstname, lastName, City,street</t>
+  </si>
+  <si>
+    <t>C# implementatie: Complete Adress Unit test, en Invalidate method voor postalCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C# implementatie: Complete Unit test voor Person </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C# implementatie: Complete Unit test voor FuelCard en Exception voor PinCode/CardNumber </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="[$]hh:mm;@" x16r2:formatCode16="[$-en-BE,1]hh:mm;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -113,13 +166,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -146,7 +204,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -424,20 +482,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" customWidth="1"/>
     <col min="6" max="6" width="86.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -453,271 +512,662 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>44608</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="D2">
+        <v>2.5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>44611</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.6875</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>44615</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1">
-        <v>44608</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.875</v>
-      </c>
-      <c r="E2">
-        <v>2.5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1">
-        <v>44608</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.875</v>
-      </c>
-      <c r="E3">
-        <v>2.5</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="1">
-        <v>44608</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.875</v>
-      </c>
-      <c r="E4">
-        <v>2.5</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1">
-        <v>44611</v>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>44615</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.75</v>
       </c>
       <c r="C5" s="2">
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.6875</v>
-      </c>
-      <c r="E5">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>44629</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.86111111111111116</v>
+      </c>
+      <c r="D6">
         <v>2</v>
       </c>
-      <c r="F5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>44615</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1">
-        <v>44615</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="E7">
-        <v>4</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1">
-        <v>44615</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="E8">
-        <v>4</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="1">
-        <v>44615</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="E9">
-        <v>4</v>
-      </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="1">
-        <v>44619</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0.875</v>
-      </c>
-      <c r="E10">
-        <v>4</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="E6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="1">
-        <v>44622</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.875</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="1">
-        <v>44623</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="1">
-        <v>44628</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="E13">
-        <v>6</v>
-      </c>
-      <c r="F13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="1">
-        <v>44629</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.77777777777777779</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0.86111111111111116</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14" t="s">
-        <v>17</v>
-      </c>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2E0C5CF-FA43-4DD0-B675-25D87C26E3EC}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="58.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>44608</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="D2">
+        <v>2.5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>44615</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>44619</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>44622</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>44623</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>44628</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7717AB0A-8BED-4629-BD84-F4E3428DA9FD}">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="2" max="4" width="9.140625" style="4"/>
+    <col min="5" max="5" width="91.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>44608</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.875</v>
+      </c>
+      <c r="D2" s="4">
+        <f>C2 -B2</f>
+        <v>0.10416666666666663</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>44615</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D3" s="4">
+        <f t="shared" ref="D3:D7" si="0">C3 -B3</f>
+        <v>0.16666666666666663</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>44622</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.6875</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.74375000000000002</v>
+      </c>
+      <c r="D4" s="4">
+        <f t="shared" si="0"/>
+        <v>5.6250000000000022E-2</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>44622</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.78125</v>
+      </c>
+      <c r="D5" s="4">
+        <f t="shared" si="0"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>44624</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.90625</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.19791666666666663</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>44628</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.68402777777777779</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" si="0"/>
+        <v>0.17013888888888884</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>44629</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.86111111111111116</v>
+      </c>
+      <c r="D8" s="4">
+        <f>C8 -B8</f>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>44630</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.875</v>
+      </c>
+      <c r="D9" s="4">
+        <f>C9 -B9</f>
+        <v>0.16666666666666663</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>44631</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.68055555555555547</v>
+      </c>
+      <c r="D10" s="4">
+        <f>C10 -B10</f>
+        <v>7.638888888888884E-2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>44633</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D11" s="4">
+        <f>C11 -B11</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>44637</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.78402777777777777</v>
+      </c>
+      <c r="D12" s="4">
+        <f>C12 -B12</f>
+        <v>3.4027777777777768E-2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>44637</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.95138888888888884</v>
+      </c>
+      <c r="D13" s="4">
+        <f>C13 -B13</f>
+        <v>0.11805555555555547</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>44638</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0.875</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="D14" s="4">
+        <f>C14 -B14</f>
+        <v>1.388888888888884E-2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>44640</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.86111111111111116</v>
+      </c>
+      <c r="D15" s="4">
+        <f>C15 -B15</f>
+        <v>0.11111111111111116</v>
+      </c>
+      <c r="E15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>44642</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0.94444444444444453</v>
+      </c>
+      <c r="D16" s="4">
+        <f>C16 -B16</f>
+        <v>0.22222222222222232</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>44643</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.6875</v>
+      </c>
+      <c r="D17" s="4">
+        <f>C17 -B17</f>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>44643</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0.99305555555555547</v>
+      </c>
+      <c r="D18" s="4">
+        <f>C18 -B18</f>
+        <v>3.4722222222222099E-2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>44645</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0.8125</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0.90625</v>
+      </c>
+      <c r="D19" s="4">
+        <f>C19 -B19</f>
+        <v>9.375E-2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>44648</v>
+      </c>
+      <c r="B20" s="4">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="D20" s="4">
+        <f>C20 -B20</f>
+        <v>0.11805555555555558</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>44648</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0.6875</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D21" s="4">
+        <f>C21 -B21</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Documentatie/Prestaties Studenten Team.xlsx
+++ b/Documentatie/Prestaties Studenten Team.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Atom\source\repos\Project-2022\Documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57854110-AE14-44D9-B27A-0E86A444A8BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F876B60C-69A8-4CD5-8352-0C4874A78589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
   <si>
     <t>Datum</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t xml:space="preserve">C# implementatie: Complete Unit test voor FuelCard en Exception voor PinCode/CardNumber </t>
+  </si>
+  <si>
+    <t>Unit test document aangemaakt</t>
   </si>
 </sst>
 </file>
@@ -135,7 +138,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="[$]hh:mm;@" x16r2:formatCode16="[$-en-BE,1]hh:mm;@"/>
+    <numFmt numFmtId="164" formatCode="[$]hh:mm;@" x16r2:formatCode16="[$-en-BE,1]hh:mm;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -171,7 +174,7 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -776,10 +779,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7717AB0A-8BED-4629-BD84-F4E3428DA9FD}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -925,7 +928,7 @@
         <v>0.86111111111111116</v>
       </c>
       <c r="D8" s="4">
-        <f>C8 -B8</f>
+        <f t="shared" ref="D8:D22" si="1">C8 -B8</f>
         <v>8.333333333333337E-2</v>
       </c>
       <c r="E8" t="s">
@@ -943,7 +946,7 @@
         <v>0.875</v>
       </c>
       <c r="D9" s="4">
-        <f>C9 -B9</f>
+        <f t="shared" si="1"/>
         <v>0.16666666666666663</v>
       </c>
       <c r="E9" t="s">
@@ -961,7 +964,7 @@
         <v>0.68055555555555547</v>
       </c>
       <c r="D10" s="4">
-        <f>C10 -B10</f>
+        <f t="shared" si="1"/>
         <v>7.638888888888884E-2</v>
       </c>
       <c r="E10" t="s">
@@ -979,7 +982,7 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="D11" s="4">
-        <f>C11 -B11</f>
+        <f t="shared" si="1"/>
         <v>6.25E-2</v>
       </c>
       <c r="E11" t="s">
@@ -997,7 +1000,7 @@
         <v>0.78402777777777777</v>
       </c>
       <c r="D12" s="4">
-        <f>C12 -B12</f>
+        <f t="shared" si="1"/>
         <v>3.4027777777777768E-2</v>
       </c>
       <c r="E12" t="s">
@@ -1015,7 +1018,7 @@
         <v>0.95138888888888884</v>
       </c>
       <c r="D13" s="4">
-        <f>C13 -B13</f>
+        <f t="shared" si="1"/>
         <v>0.11805555555555547</v>
       </c>
       <c r="E13" t="s">
@@ -1033,7 +1036,7 @@
         <v>0.88888888888888884</v>
       </c>
       <c r="D14" s="4">
-        <f>C14 -B14</f>
+        <f t="shared" si="1"/>
         <v>1.388888888888884E-2</v>
       </c>
       <c r="E14" t="s">
@@ -1051,7 +1054,7 @@
         <v>0.86111111111111116</v>
       </c>
       <c r="D15" s="4">
-        <f>C15 -B15</f>
+        <f t="shared" si="1"/>
         <v>0.11111111111111116</v>
       </c>
       <c r="E15" t="s">
@@ -1069,7 +1072,7 @@
         <v>0.94444444444444453</v>
       </c>
       <c r="D16" s="4">
-        <f>C16 -B16</f>
+        <f t="shared" si="1"/>
         <v>0.22222222222222232</v>
       </c>
       <c r="E16" t="s">
@@ -1087,7 +1090,7 @@
         <v>0.6875</v>
       </c>
       <c r="D17" s="4">
-        <f>C17 -B17</f>
+        <f t="shared" si="1"/>
         <v>2.083333333333337E-2</v>
       </c>
       <c r="E17" t="s">
@@ -1105,7 +1108,7 @@
         <v>0.99305555555555547</v>
       </c>
       <c r="D18" s="4">
-        <f>C18 -B18</f>
+        <f t="shared" si="1"/>
         <v>3.4722222222222099E-2</v>
       </c>
       <c r="E18" t="s">
@@ -1123,7 +1126,7 @@
         <v>0.90625</v>
       </c>
       <c r="D19" s="4">
-        <f>C19 -B19</f>
+        <f t="shared" si="1"/>
         <v>9.375E-2</v>
       </c>
       <c r="E19" t="s">
@@ -1141,7 +1144,7 @@
         <v>0.65972222222222221</v>
       </c>
       <c r="D20" s="4">
-        <f>C20 -B20</f>
+        <f t="shared" si="1"/>
         <v>0.11805555555555558</v>
       </c>
       <c r="E20" s="5" t="s">
@@ -1159,11 +1162,29 @@
         <v>0.75</v>
       </c>
       <c r="D21" s="4">
-        <f>C21 -B21</f>
+        <f t="shared" si="1"/>
         <v>6.25E-2</v>
       </c>
       <c r="E21" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>44649</v>
+      </c>
+      <c r="B22" s="4">
+        <v>0.875</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0.97291666666666676</v>
+      </c>
+      <c r="D22" s="4">
+        <f t="shared" si="1"/>
+        <v>9.7916666666666763E-2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Documentatie/Prestaties Studenten Team.xlsx
+++ b/Documentatie/Prestaties Studenten Team.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Atom\source\repos\Project-2022\Documentatie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\HoGent\Project-2022\Documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F876B60C-69A8-4CD5-8352-0C4874A78589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Robin " sheetId="1" r:id="rId1"/>
     <sheet name="Hendrik" sheetId="2" r:id="rId2"/>
     <sheet name="Giorgi" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
   <si>
     <t>Datum</t>
   </si>
@@ -131,14 +130,20 @@
   </si>
   <si>
     <t>Unit test document aangemaakt</t>
+  </si>
+  <si>
+    <t>Research + Team meeting</t>
+  </si>
+  <si>
+    <t>Research voor security</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$]hh:mm;@" x16r2:formatCode16="[$-en-BE,1]hh:mm;@"/>
+    <numFmt numFmtId="164" formatCode="[$]hh:mm;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -180,7 +185,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -207,7 +212,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -485,7 +490,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -637,11 +642,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2E0C5CF-FA43-4DD0-B675-25D87C26E3EC}">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -772,16 +777,50 @@
         <v>12</v>
       </c>
     </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>44629</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>44650</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7717AB0A-8BED-4629-BD84-F4E3428DA9FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>

--- a/Documentatie/Prestaties Studenten Team.xlsx
+++ b/Documentatie/Prestaties Studenten Team.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
   <si>
     <t>Datum</t>
   </si>
@@ -135,7 +135,10 @@
     <t>Research + Team meeting</t>
   </si>
   <si>
-    <t>Research voor security</t>
+    <t>Resaerch + Team meeting</t>
+  </si>
+  <si>
+    <t>security</t>
   </si>
 </sst>
 </file>
@@ -643,10 +646,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -791,7 +794,7 @@
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -809,6 +812,23 @@
       </c>
       <c r="E9" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>44678</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Documentatie/Prestaties Studenten Team.xlsx
+++ b/Documentatie/Prestaties Studenten Team.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
   <si>
     <t>Datum</t>
   </si>
@@ -132,13 +132,16 @@
     <t>Unit test document aangemaakt</t>
   </si>
   <si>
-    <t>Research + Team meeting</t>
-  </si>
-  <si>
-    <t>Resaerch + Team meeting</t>
-  </si>
-  <si>
     <t>security</t>
+  </si>
+  <si>
+    <t>Research security .Net + Team meeting</t>
+  </si>
+  <si>
+    <t>Code analyse + Team meeting</t>
+  </si>
+  <si>
+    <t>Test Data</t>
   </si>
 </sst>
 </file>
@@ -646,10 +649,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -794,7 +797,7 @@
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -811,7 +814,7 @@
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -828,7 +831,41 @@
         <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>44683</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>44686</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Documentatie/Prestaties Studenten Team.xlsx
+++ b/Documentatie/Prestaties Studenten Team.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\HoGent\Project-2022\Documentatie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Atom\source\repos\Project-2022\Documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A9C718-7226-4F99-A7E6-3685FB004B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Robin " sheetId="1" r:id="rId1"/>
     <sheet name="Hendrik" sheetId="2" r:id="rId2"/>
     <sheet name="Giorgi" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="51">
   <si>
     <t>Datum</t>
   </si>
@@ -142,12 +143,57 @@
   </si>
   <si>
     <t>Test Data</t>
+  </si>
+  <si>
+    <t>Team meting</t>
+  </si>
+  <si>
+    <t>C# implementation: Repository tests</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Refresh WPF / Xaml best practices</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Refresh WPF / Xaml mvvm</t>
+  </si>
+  <si>
+    <t>C# implementation: Aanvullend tests voor domain and repositories</t>
+  </si>
+  <si>
+    <t>C# implementation: Policy-based authentication and Token generator gebruik maken van  secret key</t>
+  </si>
+  <si>
+    <t>C# implementation: sign out /refresh token ondersteuning</t>
+  </si>
+  <si>
+    <t>C# implementation: authentication/authorization services en controlers</t>
+  </si>
+  <si>
+    <t>C# implementation: Identity contex voor user Tabelen and JWT token ondersteuning</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> C# implementation:  Presentatie laag en sign in view/viewmodel + api comunicatie interface/services</t>
+  </si>
+  <si>
+    <t>C# implementation: JasonConverter voor dataonly / Hooft menu view/viewmodel + navigatie en search control</t>
+  </si>
+  <si>
+    <t>C# implementation: Car/FuelCard/Person view/viewmodel en lijst ophalen van API</t>
+  </si>
+  <si>
+    <t>C# implementation: Tabellenscheiding in individuele database (gegevens en authenticatie) en contexten.</t>
+  </si>
+  <si>
+    <t>C# implementation: Streaming data from API -&gt; GetAllStream controlers en Gedeeld project toegevoegd voor een betere code-organisatie</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> C# implementation:  dependency injection / base class /tab bass class en structure wan presentatie laag</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$]hh:mm;@"/>
   </numFmts>
@@ -191,7 +237,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -218,7 +264,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -496,7 +542,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -648,11 +694,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -874,18 +920,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.85546875" customWidth="1"/>
     <col min="2" max="4" width="9.140625" style="4"/>
-    <col min="5" max="5" width="91.5703125" customWidth="1"/>
+    <col min="5" max="5" width="139.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1283,8 +1329,314 @@
         <v>31</v>
       </c>
     </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>44650</v>
+      </c>
+      <c r="B23" s="4">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0.875</v>
+      </c>
+      <c r="D23" s="4">
+        <f t="shared" ref="D23" si="2">C23 -B23</f>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="E23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>44664</v>
+      </c>
+      <c r="B24" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0.875</v>
+      </c>
+      <c r="D24" s="4">
+        <f t="shared" ref="D24" si="3">C24 -B24</f>
+        <v>0.125</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>44665</v>
+      </c>
+      <c r="B25" s="4">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D25" s="4">
+        <f t="shared" ref="D25" si="4">C25 -B25</f>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>44665</v>
+      </c>
+      <c r="B26" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="C26" s="4">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D26" s="4">
+        <f t="shared" ref="D26" si="5">C26 -B26</f>
+        <v>0.16666666666666663</v>
+      </c>
+      <c r="E26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>44665</v>
+      </c>
+      <c r="B27" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="C27" s="4">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D27" s="4">
+        <f t="shared" ref="D27:D28" si="6">C27 -B27</f>
+        <v>0.16666666666666663</v>
+      </c>
+      <c r="E27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>44666</v>
+      </c>
+      <c r="B28" s="4">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="C28" s="4">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D28" s="4">
+        <f t="shared" si="6"/>
+        <v>0.1875</v>
+      </c>
+      <c r="E28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>44668</v>
+      </c>
+      <c r="B29" s="4">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="C29" s="4">
+        <v>0.875</v>
+      </c>
+      <c r="D29" s="4">
+        <f t="shared" ref="D29" si="7">C29 -B29</f>
+        <v>0.14583333333333337</v>
+      </c>
+      <c r="E29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>44670</v>
+      </c>
+      <c r="B30" s="4">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="C30" s="4">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D30" s="4">
+        <f t="shared" ref="D30" si="8">C30 -B30</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>44672</v>
+      </c>
+      <c r="B31" s="4">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="C31" s="4">
+        <v>0.875</v>
+      </c>
+      <c r="D31" s="4">
+        <f>C31 -B31</f>
+        <v>0.10416666666666663</v>
+      </c>
+      <c r="E31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>44673</v>
+      </c>
+      <c r="B32" s="4">
+        <v>0.6875</v>
+      </c>
+      <c r="C32" s="4">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D32" s="4">
+        <f t="shared" ref="D32" si="9">C32 -B32</f>
+        <v>0.14583333333333337</v>
+      </c>
+      <c r="E32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>44676</v>
+      </c>
+      <c r="B33" s="4">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="C33" s="4">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D33" s="4">
+        <f t="shared" ref="D33" si="10">C33 -B33</f>
+        <v>0.1875</v>
+      </c>
+      <c r="E33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>44677</v>
+      </c>
+      <c r="B34" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="C34" s="4">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D34" s="4">
+        <f t="shared" ref="D34" si="11">C34 -B34</f>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="E34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>44678</v>
+      </c>
+      <c r="B35" s="4">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C35" s="4">
+        <v>0.875</v>
+      </c>
+      <c r="D35" s="4">
+        <f t="shared" ref="D35" si="12">C35 -B35</f>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="E35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>44682</v>
+      </c>
+      <c r="B36" s="4">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C36" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D36" s="4">
+        <f t="shared" ref="D36" si="13">C36 -B36</f>
+        <v>0.16666666666666669</v>
+      </c>
+      <c r="E36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>44682</v>
+      </c>
+      <c r="B37" s="4">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="C37" s="4">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D37" s="4">
+        <f t="shared" ref="D37" si="14">C37 -B37</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E37" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>44682</v>
+      </c>
+      <c r="B38" s="4">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C38" s="4">
+        <v>0.875</v>
+      </c>
+      <c r="D38" s="4">
+        <f t="shared" ref="D38" si="15">C38 -B38</f>
+        <v>0.16666666666666663</v>
+      </c>
+      <c r="E38" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>44687</v>
+      </c>
+      <c r="B39" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="C39" s="4">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D39" s="4">
+        <f t="shared" ref="D39" si="16">C39 -B39</f>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="E39" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documentatie/Prestaties Studenten Team.xlsx
+++ b/Documentatie/Prestaties Studenten Team.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Atom\source\repos\Project-2022\Documentatie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\HoGent\Project-2022\Documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A9C718-7226-4F99-A7E6-3685FB004B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Robin " sheetId="1" r:id="rId1"/>
     <sheet name="Hendrik" sheetId="2" r:id="rId2"/>
     <sheet name="Giorgi" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="53">
   <si>
     <t>Datum</t>
   </si>
@@ -188,12 +187,18 @@
   </si>
   <si>
     <t xml:space="preserve"> C# implementation:  dependency injection / base class /tab bass class en structure wan presentatie laag</t>
+  </si>
+  <si>
+    <t>analyse code</t>
+  </si>
+  <si>
+    <t>fuelcard view en delete implementen op front end</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$]hh:mm;@"/>
   </numFmts>
@@ -237,7 +242,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -264,7 +269,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -542,7 +547,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -694,11 +699,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -914,16 +919,67 @@
         <v>35</v>
       </c>
     </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>44693</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>44698</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>44700</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D15">
+        <v>6.5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>

--- a/Documentatie/Prestaties Studenten Team.xlsx
+++ b/Documentatie/Prestaties Studenten Team.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="54">
   <si>
     <t>Datum</t>
   </si>
@@ -193,6 +193,9 @@
   </si>
   <si>
     <t>fuelcard view en delete implementen op front end</t>
+  </si>
+  <si>
+    <t>CarView Update</t>
   </si>
 </sst>
 </file>
@@ -700,10 +703,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -968,6 +971,23 @@
       </c>
       <c r="E15" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>44706</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D16">
+        <v>3.5</v>
+      </c>
+      <c r="E16" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/Documentatie/Prestaties Studenten Team.xlsx
+++ b/Documentatie/Prestaties Studenten Team.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="58">
   <si>
     <t>Datum</t>
   </si>
@@ -196,6 +196,18 @@
   </si>
   <si>
     <t>CarView Update</t>
+  </si>
+  <si>
+    <t>Overlopen en verstaan code</t>
+  </si>
+  <si>
+    <t>prestantie</t>
+  </si>
+  <si>
+    <t>Class Diagram</t>
+  </si>
+  <si>
+    <t>Opmaak bijkomstige info</t>
   </si>
 </sst>
 </file>
@@ -703,10 +715,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -988,6 +1000,74 @@
       </c>
       <c r="E16" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>44726</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>44728</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D18">
+        <v>0.5</v>
+      </c>
+      <c r="E18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>44729</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>44730</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
